--- a/src/results/val_results.xlsx
+++ b/src/results/val_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Federated_Learning\Retinal_OCT\src\models\federated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Federated_Learning\Retinal_OCT\src\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD86275-67FB-4AEA-B588-A470767EA8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5EEB02-B266-49BC-8207-60ED108E1479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="federated" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -75,7 +75,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3736E519-FCBA-426B-9AFB-764AAC53887C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.3400764465331997E-2</v>
+        <v>4.3467156589031199E-2</v>
       </c>
       <c r="C2">
         <v>0.21875</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.5237863659858697E-2</v>
+        <v>3.5476386547088602E-2</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -545,10 +545,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.5364235043525599E-2</v>
+        <v>2.4532856419682499E-2</v>
       </c>
       <c r="C4">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -556,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.5364235043525599E-2</v>
+        <v>1.9667379558086302E-2</v>
       </c>
       <c r="C5">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -567,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.20664648711681E-2</v>
+        <v>1.71331986784935E-2</v>
       </c>
       <c r="C6">
         <v>0.78125</v>
@@ -578,10 +578,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.66651885956525E-2</v>
+        <v>1.28531297668814E-2</v>
       </c>
       <c r="C7">
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,10 +589,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.66651885956525E-2</v>
+        <v>1.4445257373154099E-2</v>
       </c>
       <c r="C8">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,10 +600,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.1430789716541699E-2</v>
+        <v>1.19784092530608E-2</v>
       </c>
       <c r="C9">
-        <v>0.875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -611,10 +611,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.1751718819141299E-2</v>
+        <v>1.10349329188466E-2</v>
       </c>
       <c r="C10">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -622,10 +622,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.26045271754264E-2</v>
+        <v>1.02126933634281E-2</v>
       </c>
       <c r="C11">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -633,10 +633,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>9.8001658916473302E-3</v>
+        <v>1.0293960571289E-2</v>
       </c>
       <c r="C12">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>
